--- a/testData/Data.xlsx
+++ b/testData/Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303741\eclipse-workspace\Coursera_Project\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F561A29-6046-4390-AF03-A4B3430BA396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C662D88-4CE9-444C-9008-9F4761F3ED91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Webdev Course" sheetId="2" r:id="rId2"/>
+    <sheet name="Languages" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
   <si>
     <t>Course Name</t>
   </si>
@@ -55,6 +56,40 @@
 (34K reviews)</t>
   </si>
   <si>
+    <t>Introduction to Web Development with HTML, CSS, JavaScript</t>
+  </si>
+  <si>
+    <t>4.6
+(1.9K reviews)</t>
+  </si>
+  <si>
+    <t>IBM Back-End Development</t>
+  </si>
+  <si>
+    <t>4.6
+(38K reviews)</t>
+  </si>
+  <si>
+    <t>IBM Back-end JavaScript Developer</t>
+  </si>
+  <si>
+    <t>Introduction to Web Development</t>
+  </si>
+  <si>
+    <t>4.7
+(3.6K reviews)</t>
+  </si>
+  <si>
+    <t>Introduction to HTML5</t>
+  </si>
+  <si>
+    <t>4.7
+(27K reviews)</t>
+  </si>
+  <si>
+    <t>Learn JavaScript</t>
+  </si>
+  <si>
     <t>Python for Data Science, AI &amp; Development</t>
   </si>
   <si>
@@ -62,99 +97,125 @@
 (35K reviews)</t>
   </si>
   <si>
-    <t>Introduction to Web Development with HTML, CSS, JavaScript</t>
+    <t>Meta Back-End Developer</t>
+  </si>
+  <si>
+    <t>Create a Website Using Wordpress : Free Hosting &amp; Sub-domain</t>
+  </si>
+  <si>
+    <t>Spanish (6,310)</t>
+  </si>
+  <si>
+    <t>Arabic (5,472)</t>
+  </si>
+  <si>
+    <t>French (5,410)</t>
   </si>
   <si>
     <t>4.6
-(1.8K reviews)</t>
-  </si>
-  <si>
-    <t>Coding for Designers, Managers, and Entrepreneurs</t>
+(2.6K reviews)</t>
   </si>
   <si>
     <t>4.2
-(60 reviews)</t>
-  </si>
-  <si>
-    <t>Introduction to Software Engineering</t>
-  </si>
-  <si>
-    <t>4.7
-(751 reviews)</t>
-  </si>
-  <si>
-    <t>Meta Back-End Developer</t>
-  </si>
-  <si>
-    <t>4.7
-(6.9K reviews)</t>
-  </si>
-  <si>
-    <t>Create a Website Using Wordpress : Free Hosting &amp; Sub-domain</t>
-  </si>
-  <si>
-    <t>4.3
-(1.1K reviews)</t>
-  </si>
-  <si>
-    <t>IBM Back-End Development</t>
-  </si>
-  <si>
-    <t>4.6
-(38K reviews)</t>
-  </si>
-  <si>
-    <t>Meta Android Developer</t>
-  </si>
-  <si>
-    <t>4.7
-(6K reviews)</t>
-  </si>
-  <si>
-    <t>Google UX Design</t>
+(801 reviews)</t>
+  </si>
+  <si>
+    <t>4.4
+(29 reviews)</t>
   </si>
   <si>
     <t>4.8
-(77K reviews)</t>
-  </si>
-  <si>
-    <t>4.6
-(1.9K reviews)</t>
-  </si>
-  <si>
-    <t>IBM Back-end JavaScript Developer</t>
-  </si>
-  <si>
-    <t>4.5
-(2.6K reviews)</t>
-  </si>
-  <si>
-    <t>Introduction to Web Development</t>
-  </si>
-  <si>
-    <t>4.7
-(3.6K reviews)</t>
-  </si>
-  <si>
-    <t>Introduction to HTML5</t>
-  </si>
-  <si>
-    <t>4.7
-(27K reviews)</t>
-  </si>
-  <si>
-    <t>Learn JavaScript</t>
-  </si>
-  <si>
-    <t>4.8
-(52 reviews)</t>
-  </si>
-  <si>
-    <t>IBM Full-Stack JavaScript Developer</t>
-  </si>
-  <si>
-    <t>4.5
-(2.8K reviews)</t>
+(55 reviews)</t>
+  </si>
+  <si>
+    <t>English (9,630)</t>
+  </si>
+  <si>
+    <t>Beginner (7,569)</t>
+  </si>
+  <si>
+    <t>Intermediate (4,080)</t>
+  </si>
+  <si>
+    <t>Advanced (425)</t>
+  </si>
+  <si>
+    <t>Mixed (1,341)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (5,184)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (4,987)</t>
+  </si>
+  <si>
+    <t>German (4,986)</t>
+  </si>
+  <si>
+    <t>Korean (4,962)</t>
+  </si>
+  <si>
+    <t>Japanese (4,957)</t>
+  </si>
+  <si>
+    <t>Indonesian (4,876)</t>
+  </si>
+  <si>
+    <t>Italian (4,855)</t>
+  </si>
+  <si>
+    <t>Hindi (4,845)</t>
+  </si>
+  <si>
+    <t>Russian (4,844)</t>
+  </si>
+  <si>
+    <t>Ukrainian (4,838)</t>
+  </si>
+  <si>
+    <t>Turkish (4,833)</t>
+  </si>
+  <si>
+    <t>Polish (4,820)</t>
+  </si>
+  <si>
+    <t>Swedish (4,820)</t>
+  </si>
+  <si>
+    <t>Thai (4,820)</t>
+  </si>
+  <si>
+    <t>Dutch (4,819)</t>
+  </si>
+  <si>
+    <t>Greek (4,819)</t>
+  </si>
+  <si>
+    <t>Kazakh (4,626)</t>
+  </si>
+  <si>
+    <t>Hungarian (2,962)</t>
+  </si>
+  <si>
+    <t>Chinese (Traditional) (80)</t>
+  </si>
+  <si>
+    <t>Hebrew (12)</t>
+  </si>
+  <si>
+    <t>Portuguese (Portugal) (7)</t>
+  </si>
+  <si>
+    <t>Portuguese (3)</t>
+  </si>
+  <si>
+    <t>Swahili (1)</t>
+  </si>
+  <si>
+    <t>Get Started with Figma</t>
+  </si>
+  <si>
+    <t>Create a Small Business Website with Weebly</t>
   </si>
 </sst>
 </file>
@@ -487,116 +548,288 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="56.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.08984375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="63.453125"/>
-    <col min="2" max="2" customWidth="true" width="30.81640625"/>
+    <col min="1" max="1" customWidth="true" width="28.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>25</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s" s="0">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
